--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_24.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="10">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Tested Instance</t>
+  </si>
+  <si>
+    <t>100.00%</t>
   </si>
   <si>
     <t>0.00%</t>
@@ -435,19 +438,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,19 +461,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,19 +484,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -504,19 +507,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -527,19 +530,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -550,19 +553,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -573,19 +576,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -596,19 +599,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -619,19 +622,19 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
